--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEF216-D49A-4E0B-A323-843814D07B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EC6FE-018D-43EC-AD59-F466D5B19BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="135">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -294,6 +294,153 @@
   </si>
   <si>
     <t>Modifica cliente PG (4)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica telefono Fisso sia stato inserito</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Fisso</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt;tab: Dettaglio Anagrafica &gt; subtab: Contatti &gt; button: Aggiungi contatto</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto telefono Fisso</t>
+  </si>
+  <si>
+    <t>Ricerca dello stesso cliente &gt; tab: Dettaglio Anagrafica &gt; subtab: Contatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto telefono Fisso sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Ricerca dello stesso cliente &gt; tab: Dettaglio Anagrafica &gt; subtab: Contatti &gt; dal Contatto creato &gt; menu(tre puntini) &gt;Modifica contatto</t>
+  </si>
+  <si>
+    <t>Verifica che i dati del contatto corrispondano nella pagina "Modifica contatto" e l'operazione di modifica sia effettuata correttamente verificandolo poi dalla tabella dei contatti</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto telefono Cellulare</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Fisso", Principale: "NO", pref. Int., Prefisso, Numero e l'Orario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto telefono Cellulare sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica telefono Cellulare sia stato inserito</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Cellulare</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto Fax</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica telefono Fax sia stato inserito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto Fax sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Fax</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Fax", Principale: "NO", pref. Int., Prefisso, Numero e l'Orario</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Cellulare", Principale: "NO", pref. Int., Prefisso, Numero e l'Orario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto Email sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Email", Principale: "NO" e Email</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto Email</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Email sia stato inserito</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Email</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto Sito Web</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Sito Web sia stato inserito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto Sito Web sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Sito Web</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Numero Verde sia stato inserito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto Numero Verde sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto Numero Verde</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Numero Verde", Principale: "NO", pref. Int., Prefisso, Numero e l'Orario</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Numero Verde</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto Fax Verde</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Fax Verde sia stato inserito</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Fax Verde", Principale: "NO", pref. Int., Prefisso, Numero e l'Orario</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Fax Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto Fax Verde sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto Ufficio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Ufficio sia stato inserito</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Ufficio", Principale: "NO", pref. Int., Prefisso, Numero e l'Orario</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: Ufficio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Aggiungi Contatto PEC</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica: PEC</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica PEC sia stato inserito</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt; tab: Dettaglio Anagrafica &gt; subtab: Contatti &gt; button: Aggiungi contatto</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "PEC", Principale: "NO" e PEC</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo: "Email", Principale: "NO" e Sito Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il contatto PEC sia stato inserito correttamente nella tabella del tab Contatti </t>
   </si>
 </sst>
 </file>
@@ -341,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +537,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -419,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,6 +604,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -770,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1407,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,6 +1756,789 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EC6FE-018D-43EC-AD59-F466D5B19BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FDF69F-AEFE-4444-B486-22FB0269109A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="172">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -441,6 +441,117 @@
   </si>
   <si>
     <t xml:space="preserve">Verificare che il contatto PEC sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>MW : Carta Identità (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza CI</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione vada  a buon fine</t>
+  </si>
+  <si>
+    <t>MW : Patente (1)</t>
+  </si>
+  <si>
+    <t>MW : Passaporto (1)</t>
+  </si>
+  <si>
+    <t>MW : Porto D'Armi (1)</t>
+  </si>
+  <si>
+    <t>MW : Tessera Postale (1)</t>
+  </si>
+  <si>
+    <t>MW : Altro Documento (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Patente</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Passaporto</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Porto D'Armi</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Tessera Postale</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Altro Tipo di Documento</t>
+  </si>
+  <si>
+    <t>Inserire la CI</t>
+  </si>
+  <si>
+    <t>Inserire la Patente</t>
+  </si>
+  <si>
+    <t>Inserire il Passaporto</t>
+  </si>
+  <si>
+    <t>Inserire il Porto D'Armi</t>
+  </si>
+  <si>
+    <t>Inserire la Tessera Postale</t>
+  </si>
+  <si>
+    <t>Inserire tipo di documento Altro</t>
+  </si>
+  <si>
+    <t>MW : Carta Identità (2)</t>
+  </si>
+  <si>
+    <t>MW : Patente (2)</t>
+  </si>
+  <si>
+    <t>MW : Passaporto (2)</t>
+  </si>
+  <si>
+    <t>MW : Porto D'Armi (2)</t>
+  </si>
+  <si>
+    <t>MW : Tessera Postale (2)</t>
+  </si>
+  <si>
+    <t>MW : Altro Documento (2)</t>
+  </si>
+  <si>
+    <t>MW : Carta Identità (3)</t>
+  </si>
+  <si>
+    <t>Verificare la CI inserita</t>
+  </si>
+  <si>
+    <t>MW : Patente (3)</t>
+  </si>
+  <si>
+    <t>Verificare la Patente inserita</t>
+  </si>
+  <si>
+    <t>MW : Passaporto (3)</t>
+  </si>
+  <si>
+    <t>Verificare il Passaporto inserito</t>
+  </si>
+  <si>
+    <t>Verificare il Porto D'Armi inserito</t>
+  </si>
+  <si>
+    <t>Verificare la Tessera Postale inserita</t>
+  </si>
+  <si>
+    <t>MW : Tessera Postale (3)</t>
+  </si>
+  <si>
+    <t>MW : Porto D'Armi (3)</t>
+  </si>
+  <si>
+    <t>MW : Altro Documento (3)</t>
+  </si>
+  <si>
+    <t>Verificare Altro tipo di docmento inserito</t>
   </si>
 </sst>
 </file>
@@ -924,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I39" sqref="A22:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,8 +1663,528 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EC6FE-018D-43EC-AD59-F466D5B19BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19281F5F-31B0-4636-8384-3DBC9E77ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t xml:space="preserve">Verificare che il contatto PEC sia stato inserito correttamente nella tabella del tab Contatti </t>
+  </si>
+  <si>
+    <t>Pusateri Kevin (Leased Employed)</t>
   </si>
 </sst>
 </file>
@@ -1565,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1770,7 @@
         <v>95</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>1</v>
@@ -1796,7 +1799,7 @@
         <v>91</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -1825,7 +1828,7 @@
         <v>93</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>1</v>
@@ -1854,7 +1857,7 @@
         <v>104</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>1</v>
@@ -1883,7 +1886,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>1</v>
@@ -1912,7 +1915,7 @@
         <v>93</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>1</v>
@@ -1941,7 +1944,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>1</v>
@@ -1970,7 +1973,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>1</v>
@@ -1999,7 +2002,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>1</v>
@@ -2028,7 +2031,7 @@
         <v>106</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>1</v>
@@ -2057,7 +2060,7 @@
         <v>105</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>1</v>
@@ -2086,7 +2089,7 @@
         <v>93</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>1</v>
@@ -2115,7 +2118,7 @@
         <v>133</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>1</v>
@@ -2144,7 +2147,7 @@
         <v>112</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>1</v>
@@ -2173,7 +2176,7 @@
         <v>93</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>1</v>
@@ -2202,7 +2205,7 @@
         <v>117</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
@@ -2231,7 +2234,7 @@
         <v>115</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>1</v>
@@ -2260,7 +2263,7 @@
         <v>93</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
@@ -2289,7 +2292,7 @@
         <v>121</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>1</v>
@@ -2318,7 +2321,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>1</v>
@@ -2347,7 +2350,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>1</v>
@@ -2376,7 +2379,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>1</v>
@@ -2405,7 +2408,7 @@
         <v>115</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>1</v>
@@ -2434,7 +2437,7 @@
         <v>93</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>1</v>
@@ -2463,7 +2466,7 @@
         <v>132</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>1</v>
@@ -2492,7 +2495,7 @@
         <v>134</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>1</v>
@@ -2521,7 +2524,7 @@
         <v>93</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>1</v>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19281F5F-31B0-4636-8384-3DBC9E77ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978E76CF-4444-4954-8F7E-54C1DE30BDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="139">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -235,13 +235,6 @@
   </si>
   <si>
     <t>Verificare che i consensi/contatti si siano aggiornati correttamente - verificare il folder (unici + documento)</t>
-  </si>
-  <si>
-    <t>Gestione fonte principale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landing Clients &gt;Hamburger menu&gt;Gestione fonte principale
-Selezionare alcuni clienti e passarli da una fonte ad un'altra </t>
   </si>
   <si>
     <t>Verificare che l'operazione vada a buon fine e che i referenti riportati nella customer view siano quelli corretti</t>
@@ -275,15 +268,9 @@
     <t xml:space="preserve">Da Clients aprire l'Hamburger menu&gt;Cancellazione clienti </t>
   </si>
   <si>
-    <t>Cancellare alcuni clienti PF e PG (prendersi nota dei nomi)</t>
-  </si>
-  <si>
     <t>Ricercare i clienti in buca di ricera - accedere alla scheda</t>
   </si>
   <si>
-    <t>Pusateri Kevin</t>
-  </si>
-  <si>
     <t>Verificare si venga riportati nel folder</t>
   </si>
   <si>
@@ -444,6 +431,29 @@
   </si>
   <si>
     <t>Pusateri Kevin (Leased Employed)</t>
+  </si>
+  <si>
+    <t>Cancellare alcuni clienti PF (prendersi nota dei nomi)</t>
+  </si>
+  <si>
+    <t>Cancellare alcuni clienti PG (prendersi nota dei nomi)</t>
+  </si>
+  <si>
+    <t>Cancellazione clienti (4)</t>
+  </si>
+  <si>
+    <t>Gestione fonte principale(1)</t>
+  </si>
+  <si>
+    <t>Gestione fonte principale(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing Clients &gt;Hamburger menu&gt;Gestione fonte principale
+Selezionare alcuni clienti PF e passarli da una fonte ad un'altra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing Clients &gt;Hamburger menu&gt;Gestione fonte principale
+Selezionare alcuni clienti PG e passarli da una fonte ad un'altra </t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1486,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>0</v>
@@ -1502,10 +1512,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>0</v>
@@ -1528,7 +1538,7 @@
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>64</v>
@@ -1566,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,103 +1626,103 @@
     </row>
     <row r="2" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="D4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
@@ -1732,817 +1742,876 @@
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="C8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="D11" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="B19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="C20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="C26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="D31" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="C32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="C35" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978E76CF-4444-4954-8F7E-54C1DE30BDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADAA8F5-41F3-4004-9AFF-C3C45F9BE52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADAA8F5-41F3-4004-9AFF-C3C45F9BE52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C9561-71F8-49CF-97A8-65E167184F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
-    <sheet name="Kevin" sheetId="3" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="4" r:id="rId2"/>
+    <sheet name="Kevin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="190">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -454,13 +455,166 @@
   <si>
     <t xml:space="preserve">Landing Clients &gt;Hamburger menu&gt;Gestione fonte principale
 Selezionare alcuni clienti PG e passarli da una fonte ad un'altra </t>
+  </si>
+  <si>
+    <t>MW : Carta Identità (1)</t>
+  </si>
+  <si>
+    <t>Oboe Andrea (Leased Employee) &lt;AZGROUP\LE00038&gt;</t>
+  </si>
+  <si>
+    <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Clients</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza CI</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione vada  a buon fine</t>
+  </si>
+  <si>
+    <t>MW : Carta Identità (2)</t>
+  </si>
+  <si>
+    <t>Inserire la CI</t>
+  </si>
+  <si>
+    <t>MW : Carta Identità (3)</t>
+  </si>
+  <si>
+    <t>Verificare la CI inserita</t>
+  </si>
+  <si>
+    <t>MW : Patente (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Patente</t>
+  </si>
+  <si>
+    <t>MW : Patente (2)</t>
+  </si>
+  <si>
+    <t>Inserire la Patente</t>
+  </si>
+  <si>
+    <t>MW : Patente (3)</t>
+  </si>
+  <si>
+    <t>Verificare la Patente inserita</t>
+  </si>
+  <si>
+    <t>MW : Passaporto (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Passaporto</t>
+  </si>
+  <si>
+    <t>MW : Passaporto (2)</t>
+  </si>
+  <si>
+    <t>Inserire il Passaporto</t>
+  </si>
+  <si>
+    <t>MW : Passaporto (3)</t>
+  </si>
+  <si>
+    <t>Verificare il Passaporto inserito</t>
+  </si>
+  <si>
+    <t>MW : Porto D'Armi (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Porto D'Armi</t>
+  </si>
+  <si>
+    <t>MW : Porto D'Armi (2)</t>
+  </si>
+  <si>
+    <t>Inserire il Porto D'Armi</t>
+  </si>
+  <si>
+    <t>MW : Porto D'Armi (3)</t>
+  </si>
+  <si>
+    <t>Verificare il Porto D'Armi inserito</t>
+  </si>
+  <si>
+    <t>MW : Tessera Postale (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Tessera Postale</t>
+  </si>
+  <si>
+    <t>MW : Tessera Postale (2)</t>
+  </si>
+  <si>
+    <t>Inserire la Tessera Postale</t>
+  </si>
+  <si>
+    <t>MW : Tessera Postale (3)</t>
+  </si>
+  <si>
+    <t>Verificare la Tessera Postale inserita</t>
+  </si>
+  <si>
+    <t>MW : Altro Documento (1)</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random senza Altro Tipo di Documento</t>
+  </si>
+  <si>
+    <t>MW : Altro Documento (2)</t>
+  </si>
+  <si>
+    <t>Inserire tipo di documento Altro</t>
+  </si>
+  <si>
+    <t>MW : Altro Documento (3)</t>
+  </si>
+  <si>
+    <t>Verificare Altro tipo di docmento inserito</t>
+  </si>
+  <si>
+    <t>MW : Numero Principale (1)</t>
+  </si>
+  <si>
+    <t>MW : Numero Principale (2)</t>
+  </si>
+  <si>
+    <t>MW : Numero Principale (3)</t>
+  </si>
+  <si>
+    <t>Cerca Cliente senza Numero Principale</t>
+  </si>
+  <si>
+    <t>Aggiungi Numero Principale</t>
+  </si>
+  <si>
+    <t>Verifica Numero Principale inserito</t>
+  </si>
+  <si>
+    <t>MW : Mail Principale (1)</t>
+  </si>
+  <si>
+    <t>MW : Mail Principale (2)</t>
+  </si>
+  <si>
+    <t>MW : Mail Principale (3)</t>
+  </si>
+  <si>
+    <t>Cerca Cliente senza Mail Principale</t>
+  </si>
+  <si>
+    <t>Aggiungi Mail Principale</t>
+  </si>
+  <si>
+    <t>Verifica Mail Principale inserita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,16 +646,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +702,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -585,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,7 +752,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -620,6 +771,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,17 +1096,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -1449,124 +1608,817 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="D19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
+      <c r="D21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,11 +2427,644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A33E020-E2FE-4DA8-BB97-DE479070A142}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" activeCellId="17" sqref="B2:C2 B4:C4 B6:C6 B8:C8 B10:C10 B12:C12 B14:C14 B16:C16 B18:C18 B20:C20 B22:C22 B24:C24 B26:C26 B28:C28 B30:C30 B32:C32 B34:C34 B36:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,988 +3110,988 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="E7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="E11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="E12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="E13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="E14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="E15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="13" t="s">
+      <c r="E16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="13" t="s">
+      <c r="E17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="13" t="s">
+      <c r="E18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="E19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="E20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="13" t="s">
+      <c r="E21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="E22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="13" t="s">
+      <c r="E23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="13" t="s">
+      <c r="E24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="E25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="13" t="s">
+      <c r="E26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="13" t="s">
+      <c r="E27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="E28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="E29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="13" t="s">
+      <c r="E30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="13" t="s">
+      <c r="E31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="13" t="s">
+      <c r="E32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="E33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="13" t="s">
+      <c r="E34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="13" t="s">
+      <c r="E35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C9561-71F8-49CF-97A8-65E167184F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D0E5AF-D79C-47EC-80F5-4263710342A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:I45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2430,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A33E020-E2FE-4DA8-BB97-DE479070A142}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B36" activeCellId="17" sqref="B2:C2 B4:C4 B6:C6 B8:C8 B10:C10 B12:C12 B14:C14 B16:C16 B18:C18 B20:C20 B22:C22 B24:C24 B26:C26 B28:C28 B30:C30 B32:C32 B34:C34 B36:C36"/>
     </sheetView>
   </sheetViews>
@@ -3063,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D0E5AF-D79C-47EC-80F5-4263710342A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD17B51-9273-4E0A-BCCD-886805D67A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="217">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>Verificare che l'operazione vada a buon fine e che i referenti riportati nella customer view siano quelli corretti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clienti duplicati </t>
   </si>
   <si>
     <t>Landing Clients&gt;Hamburger menu&gt;Clienti duplicati
@@ -608,6 +605,90 @@
   </si>
   <si>
     <t>Verifica Mail Principale inserita</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt;tab: Dettaglio Anagrafica &gt; subtab: Dati anagrafici</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Dati Principali persona fisica"</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Identificazione e adeguata verifica"</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt;tab: Dettaglio Anagrafica &gt; subtab: Dati anagrafici -&gt; Apri i pannelli dei Consensi</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi sui pannelli "Consensi"</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Residenza anagrafica"</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Domicilio"</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Numero Telefono Principale"</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Email"</t>
+  </si>
+  <si>
+    <t>Verifica la presenza dei campi di "Documento Principale</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Dati Principali persona fisica</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Identificazione e adeguata verifica</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Consensi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Domicilio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Residenza anagrafica</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Email</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Numero Telefono Principale</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Verifica presenza campi titoli -&gt; Documento Principale</t>
+  </si>
+  <si>
+    <t>Clienti duplicati     NON FATOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>Matrix Web : Conti Correnti_Verifica Aggiugni Conto corrente</t>
+  </si>
+  <si>
+    <t>Matrix Web : Conti Correnti_Verifica Conto corrente inserito</t>
+  </si>
+  <si>
+    <t>Matrix Web : Conti Correnti_Verifica Conto corrente eliminato</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt;tab: Dettaglio Anagrafica &gt; subtab: Conti correnti &gt; button: Aggiungi Conto Corrente</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt;tab: Dettaglio Anagrafica &gt; subtab: Conti correnti</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Tipo Coordinate, Iban, Intestatario, Codice Fscale/Partita IVA, Anno Apertura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il Conto corrente sia stato inserito correttamente nella tabella del tab Conti correnti </t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt;tab: Dettaglio Anagrafica &gt; subtab: Conti correnti &gt; dal Conto corrente creato &gt; menu(tre puntini) &gt;Elimina conto corrente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che il Conto corrente sia stato eliminato correttamente nella tabella del tab Conti correnti </t>
   </si>
 </sst>
 </file>
@@ -647,7 +728,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +789,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -737,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,6 +872,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,7 +1744,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>0</v>
@@ -1671,10 +1770,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>0</v>
@@ -1697,7 +1796,7 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>64</v>
@@ -1726,13 +1825,13 @@
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
@@ -1755,13 +1854,13 @@
     </row>
     <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="C23" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>0</v>
@@ -1784,13 +1883,13 @@
     </row>
     <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="C24" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>0</v>
@@ -1813,13 +1912,13 @@
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>149</v>
-      </c>
       <c r="C25" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>0</v>
@@ -1842,13 +1941,13 @@
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="C26" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>0</v>
@@ -1871,13 +1970,13 @@
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="C27" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>0</v>
@@ -1900,13 +1999,13 @@
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="C28" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>0</v>
@@ -1929,13 +2028,13 @@
     </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>157</v>
-      </c>
       <c r="C29" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>0</v>
@@ -1958,13 +2057,13 @@
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="C30" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>0</v>
@@ -1987,13 +2086,13 @@
     </row>
     <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="C31" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>0</v>
@@ -2016,13 +2115,13 @@
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="C32" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>0</v>
@@ -2045,13 +2144,13 @@
     </row>
     <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="C33" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>0</v>
@@ -2074,13 +2173,13 @@
     </row>
     <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="C34" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>0</v>
@@ -2103,13 +2202,13 @@
     </row>
     <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>169</v>
-      </c>
       <c r="C35" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>0</v>
@@ -2132,13 +2231,13 @@
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>171</v>
-      </c>
       <c r="C36" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>0</v>
@@ -2161,13 +2260,13 @@
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>173</v>
-      </c>
       <c r="C37" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>0</v>
@@ -2190,13 +2289,13 @@
     </row>
     <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>175</v>
-      </c>
       <c r="C38" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>0</v>
@@ -2219,13 +2318,13 @@
     </row>
     <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="C39" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>0</v>
@@ -2248,13 +2347,13 @@
     </row>
     <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>0</v>
@@ -2277,13 +2376,13 @@
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>0</v>
@@ -2306,13 +2405,13 @@
     </row>
     <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>0</v>
@@ -2335,13 +2434,13 @@
     </row>
     <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>0</v>
@@ -2364,13 +2463,13 @@
     </row>
     <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>0</v>
@@ -2393,13 +2492,13 @@
     </row>
     <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>0</v>
@@ -2444,614 +2543,614 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
         <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
         <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
         <v>140</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>140</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
         <v>140</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
         <v>140</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
         <v>140</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
         <v>140</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
         <v>140</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
         <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
         <v>140</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
         <v>140</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
         <v>140</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
         <v>140</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
         <v>140</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
         <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
         <v>140</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3061,10 +3160,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,47 +3208,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="7" t="s">
+    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>1</v>
@@ -3167,47 +3266,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="8" t="s">
+    <row r="4" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>1</v>
@@ -3227,16 +3326,16 @@
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>1</v>
@@ -3256,16 +3355,16 @@
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1</v>
@@ -3285,16 +3384,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>1</v>
@@ -3312,786 +3411,1105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="D24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="C25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="D30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="D31" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="D34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="D37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="D45" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="E46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD17B51-9273-4E0A-BCCD-886805D67A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F7640-C911-4EFF-9E48-C11290481BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="245">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -689,6 +689,90 @@
   </si>
   <si>
     <t xml:space="preserve">Verificare che il Conto corrente sia stato eliminato correttamente nella tabella del tab Conti correnti </t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt; tab: Dettaglio Anagrafica &gt; subtab: Altri indirizzi &gt; button: Aggiungi indirizzo</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di inserimento vada  a buon fine -&gt; Toponimo: "Via", Indirizzo: "Torino", Numero: 1, Comune: 'Trieste', Cap: 34123</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione Indirizzo_Verifica l'operazione di inserimento Indirizzo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Indirizzo sia inserito nella tabella</t>
+  </si>
+  <si>
+    <t>Ricerca dello stesso cliente &gt; tab: Dettaglio Anagrafica &gt; subtab: Altri indirizzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che l'indirizzo sia stato inserito correttamente nella tabella del tab Altri Indirizzi </t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica la modifica Indirizzo</t>
+  </si>
+  <si>
+    <t>Ricerca dello stesso cliente &gt; tab: Dettaglio Anagrafica &gt; subtab: Altri indirizzi &gt; dall'indirizzo creato &gt; menu(tre puntini) &gt;Modifica indirizzo</t>
+  </si>
+  <si>
+    <t>Matrix Web : Creazione_Contatto_Verifica Elimina Indirizzo</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di modifica vada a buon fine -&gt; Toponimo: "Via", Indirizzo: "XX Settembre", Numero: 1, Comune: 'MILANO', Cap: 20123 -&gt; verifica che sia stato inserito nella pagina Altri indrizzi</t>
+  </si>
+  <si>
+    <t>Verificare che l'indirizzo sia stato eliminato correttamente nella tabella</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_ Dati Principali persona fisica</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Identificazione e adeguata verifica</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Consensi</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Residenza anagrafica</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Domicilio</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Numero Telefono Principale</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Email</t>
+  </si>
+  <si>
+    <t>Matrix Web : Dati Anagrafici_Documento Principale</t>
+  </si>
+  <si>
+    <t>Ricerca di un cliente random &gt; tab: Dettaglio Anagrafica &gt; subtab: Dati anagrafici</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Dati Principali persona fisica</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Identificazione e adeguata verifica</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Consensi</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Residenza anagrafica</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Domicilio</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Numero Telefono Principale</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Email</t>
+  </si>
+  <si>
+    <t>Verifica presenza di tutti i campi titoli -&gt; Documento Principale</t>
   </si>
 </sst>
 </file>
@@ -728,7 +812,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +885,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -830,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +968,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3160,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4513,6 +4606,354 @@
         <v>3</v>
       </c>
     </row>
+    <row r="47" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F7640-C911-4EFF-9E48-C11290481BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C8F5F-802B-4BA7-B3BC-7A266319E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="810" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="261">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -773,6 +773,62 @@
   </si>
   <si>
     <t>Verifica presenza di tutti i campi titoli -&gt; Documento Principale</t>
+  </si>
+  <si>
+    <t>Clients &gt; Gestione Gruppi Legami &gt; Gestione Gruppi Aziendali</t>
+  </si>
+  <si>
+    <t>MW &gt; Accedere come Delegato Assicurativo di un'agenzia  a piacere &gt; Trovare un cliente persona giuridica &gt; Dettaglio anagrafica &gt; Legami &gt; Procedere con la creazione di un Gruppo aziendale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che l'operazione vada a buon fine e che si apra la maschera per inserire eventuali aderenti </t>
+  </si>
+  <si>
+    <t>Cliccare sul pulsante Inserisci membro&gt; Ricerca &gt; Utilizzare un'anagrafica a piacere già presenti</t>
+  </si>
+  <si>
+    <t>Effettuare l'eliminazione di un solo Appartenente</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione vada a buon fine e NON sia più presente l'Appartenente eliminato dal gruppo anche accedendo alla CV degli altri Appartenenti e del Capo gruppo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clients &gt; Gestione Gruppi Legami &gt; Gestione Gruppi Aziendali  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che:
+- si apra la ricerca tramite denominazione e funzioni correttamente;
+- NON sia possibile inserire la stessa anagrafica del Capo gruppo anche come Appartenente;
+- sia possibile inserire anagrafiche con un altra sede;
+- NON sia possibile inserire persone fisiche;
+- l'inserimento del Gruppo, Capo gruppo ed Appartenenti vadano a buon fine ed i dati visualizzati nel Dettaglio anagrafica siano corretti;
+- sia riportato qual è il Capo gruppo e quale l'Appartenente;
+- nella sidebar (sotto la denominazione del cliente) NON sia riportato nessun riferimento al Gruppo aziendale;
+</t>
+  </si>
+  <si>
+    <t>MW &gt; Accedere come Delegato Assicurativo di un'agenzia a piacere &gt; Trovare un cliente persona giuridica &gt; Dettaglio anagrafica &gt; Legami &gt; Procedere con la creazione di un Gruppo aziendale &gt; Cliccare sul pulsante Aggiungi nuovo cliente in modo da inserire un nuovo Appartenente &gt; Scegliere un'anagrafica che faccia parte già di un Gruppo aziendale in altra agenzia al di fuori dell'HUB</t>
+  </si>
+  <si>
+    <t>Verificare che si venga bloccati perché l'anagrafica risulta già legata ad un altro Gruppo aziendale (anche se in altra agenzia non dello stesso HUB)</t>
+  </si>
+  <si>
+    <t>MW &gt; Accedere come Delegato Assicurativo di un'agenzia  a piacere &gt; Trovare un cliente persona giuridica &gt; Dettaglio anagrafica &gt; Legami &gt; Procedere con l'eliminazione del gruppo aziendale</t>
+  </si>
+  <si>
+    <t>Verificare che l'operazione di elimina gruppo vada a buon fine</t>
+  </si>
+  <si>
+    <t>MW &gt; Accedere come Fonte Secondaria che NON abbia il permesso applicativo della gestione legami</t>
+  </si>
+  <si>
+    <t>Verificare che NON sia possibile ne modificare ne eliminare i Gruppi aziendali, ma che siano correttamente visibili.</t>
+  </si>
+  <si>
+    <t>Verificare NON sia possibile inserire anagrafiche già assegnate ad un altro Gruppo aziendale (indifferentemente se come Capo gruppo o Appartenente);</t>
+  </si>
+  <si>
+    <t>Verificare NON sia possibile legare più di 3 anagrafiche al gruppo e il messaggio di blocco sia corretto</t>
   </si>
 </sst>
 </file>
@@ -812,7 +868,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,8 +947,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -915,12 +977,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,10 +1049,20 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 3" xfId="1" xr:uid="{7717704E-76BB-44C2-A869-36A16CD05F21}"/>
+    <cellStyle name="Normale 4" xfId="2" xr:uid="{849AE8CC-E66E-4DA8-A862-D7F003212C4A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3253,10 +3339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,6 +5040,238 @@
         <v>3</v>
       </c>
     </row>
+    <row r="59" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/docs/tp/Clients.xlsx
+++ b/docs/tp/Clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C8F5F-802B-4BA7-B3BC-7A266319E7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC24956-C06B-4F96-8957-38DAAD1CBE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Bobo" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="300">
   <si>
     <t>Oboe Andrea (Leased Employee)</t>
   </si>
@@ -775,9 +775,6 @@
     <t>Verifica presenza di tutti i campi titoli -&gt; Documento Principale</t>
   </si>
   <si>
-    <t>Clients &gt; Gestione Gruppi Legami &gt; Gestione Gruppi Aziendali</t>
-  </si>
-  <si>
     <t>MW &gt; Accedere come Delegato Assicurativo di un'agenzia  a piacere &gt; Trovare un cliente persona giuridica &gt; Dettaglio anagrafica &gt; Legami &gt; Procedere con la creazione di un Gruppo aziendale</t>
   </si>
   <si>
@@ -791,9 +788,6 @@
   </si>
   <si>
     <t>Verificare che l'operazione vada a buon fine e NON sia più presente l'Appartenente eliminato dal gruppo anche accedendo alla CV degli altri Appartenenti e del Capo gruppo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clients &gt; Gestione Gruppi Legami &gt; Gestione Gruppi Aziendali  </t>
   </si>
   <si>
     <t xml:space="preserve">Verificare che:
@@ -829,6 +823,129 @@
   </si>
   <si>
     <t>Verificare NON sia possibile legare più di 3 anagrafiche al gruppo e il messaggio di blocco sia corretto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire Titolo e Testo a piacere e cliccare su Salva                                                                   - Verificare che l'operazione vada a buon fine e si venga riportati al Portafoglio                                                                            - verificare che sia stata creata la nota e sia presente la relativa icona sulla barra inferiore della polizza (accanto ai Ruoli)                                                                  </t>
+  </si>
+  <si>
+    <t>Sulla scheda della polizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che passando sull'icona della nota sia presente una tooltip che riporta la presenza di 1 nota    </t>
+  </si>
+  <si>
+    <t>Cliccando sulla nota</t>
+  </si>
+  <si>
+    <t>Verificare che:                                                                                                             - si apra la modale                                                                                                                    - sia presente il pulsante Aggiungi nota                        - sia presente il menu contestuale (tre puntini) con la possibilità di modificare o eliminare la nota</t>
+  </si>
+  <si>
+    <t>Scegliere Modifica nota</t>
+  </si>
+  <si>
+    <t>Modificare il Titolo ed il Testo.                                                                                                   - Verificare che l'operazione vada a buon fine                                                                                - Cliccando sull'icona Nota si apra la modale con il testo che ho appena modificato.</t>
+  </si>
+  <si>
+    <t>Dalla modale della nota &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire Titolo e Testo a piacere e cliccare su Salva                                                                   - Verificare che l'operazione vada a buon fine                                                                            - verificare che sia stata creata la nota e sia presente la relativa icona sulla barra inferiore della polizza (accanto ai Ruoli)                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che passando sull'icona della nota sia presente una tooltip che riporta la presenza di 2 note    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire il Titolo e il Testo, fleggarla come Importante e cliccare su Salva                                                                   - Verificare che l'operazione vada a buon fine                                                                            - verificare che sia stata creata la nota e sia presente la relativa icona sulla barra inferiore della polizza (accanto ai Ruoli)                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che passando sull'icona della nota sia presente una tooltip che riporta la presenza di 3 note di cui 1 importante    </t>
+  </si>
+  <si>
+    <t>Prendersi nota del numero di polizza e della Lob.                                                                  Sales &gt; Hamburger menu &gt; Note di contratto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire il numero di contratto, scegliere la lob &gt; Cerca                                                             - Verificare la presenza delle note                                                                                                                                             </t>
+  </si>
+  <si>
+    <t>Per una delle note, dal menu contestuale (Rotellina) &gt; Modifica</t>
+  </si>
+  <si>
+    <t>Modificare la nota &gt; scegliere Annulla                                                                             - Verificare che non sia cambiato nulla.                                                                                         .                                                                                                                                         Dal menu contestuale (Rotellina) &gt; Modifica                                                                                                               Modificare la nota &gt; scegliere Conferma                                                                                          - Verificare che l'operazione vada a buon fine ed il testo sia cambiato</t>
+  </si>
+  <si>
+    <t>In Clients sullo stesso cliente per la stessa polizza</t>
+  </si>
+  <si>
+    <t>Verificare che le modifiche siano andate a buon fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sempre da Clients - eliminare le note presenti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificare che l'operazione sia andata a buon fine </t>
+  </si>
+  <si>
+    <t>Note di contratto(1)</t>
+  </si>
+  <si>
+    <t>Note di contratto(2)</t>
+  </si>
+  <si>
+    <t>Note di contratto(3)</t>
+  </si>
+  <si>
+    <t>Note di contratto(4)</t>
+  </si>
+  <si>
+    <t>Note di contratto(5)</t>
+  </si>
+  <si>
+    <t>Note di contratto(6)</t>
+  </si>
+  <si>
+    <t>Note di contratto(7)</t>
+  </si>
+  <si>
+    <t>Note di contratto(8)</t>
+  </si>
+  <si>
+    <t>Note di contratto(9)</t>
+  </si>
+  <si>
+    <t>Note di contratto(10)</t>
+  </si>
+  <si>
+    <t>Note di contratto(11)</t>
+  </si>
+  <si>
+    <t>Note di contratto(12)</t>
+  </si>
+  <si>
+    <t>MW come delegato accedere alla scheda di un cliente con polizze AU (sia per RV/VITA/ULTRA) in vigore. Da portafoglio &gt; Menu contestuale &gt; Aggiungi nota</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(1)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(2)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(3)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(4)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(5)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(6)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(7)</t>
+  </si>
+  <si>
+    <t>Matrix Web : Legami(8)</t>
   </si>
 </sst>
 </file>
@@ -3339,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A60FA2-5DE8-44B4-9E60-8DD49A8388E4}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5042,13 +5159,13 @@
     </row>
     <row r="59" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>247</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>130</v>
@@ -5071,13 +5188,13 @@
     </row>
     <row r="60" spans="1:9" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>130</v>
@@ -5100,13 +5217,13 @@
     </row>
     <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>130</v>
@@ -5129,13 +5246,13 @@
     </row>
     <row r="62" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="B62" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>130</v>
@@ -5158,13 +5275,13 @@
     </row>
     <row r="63" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>130</v>
@@ -5187,13 +5304,13 @@
     </row>
     <row r="64" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>130</v>
@@ -5216,13 +5333,13 @@
     </row>
     <row r="65" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>130</v>
@@ -5245,13 +5362,13 @@
     </row>
     <row r="66" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>130</v>
@@ -5269,6 +5386,354 @@
         <v>33</v>
       </c>
       <c r="I66" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="15" t="s">
         <v>3</v>
       </c>
     </row>
